--- a/docs/TOGAF/Artifacts/Catalogs/Requirements/McSOC Requirements Catalog.xlsx
+++ b/docs/TOGAF/Artifacts/Catalogs/Requirements/McSOC Requirements Catalog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="511" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="347" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Constraint!$A$2:$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Criteria" vbProcedure="false">gap!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Titles" vbProcedure="false">Gap!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Titles_0" vbProcedure="false">Gap!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Gap!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
   <si>
     <t>Requirements Log</t>
   </si>
@@ -88,7 +89,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t> Category</t>
+    <t>Category</t>
   </si>
   <si>
     <t>Priority</t>
@@ -436,7 +437,13 @@
     <t>CON_01</t>
   </si>
   <si>
-    <t>FOSS requirments limits Microsoft components commonly found in enterprise architectures</t>
+    <t>FOSS requirements limits Microsoft components commonly found in enterprise architectures</t>
+  </si>
+  <si>
+    <t>CON_02</t>
+  </si>
+  <si>
+    <t>The eth0 connection to NAT Network used by Vagrant may limit the use of McSOC for CyberRange activities</t>
   </si>
   <si>
     <t>Gap</t>
@@ -452,16 +459,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00_)"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="M/D/YY;@"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="0"/>
-    <numFmt numFmtId="170" formatCode="M/D;@"/>
+    <numFmt numFmtId="165" formatCode="M/D/YY;@"/>
+    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="169" formatCode="M/D;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -485,27 +491,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -514,6 +499,12 @@
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -560,24 +551,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -637,7 +616,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -661,61 +640,41 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,15 +682,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -743,47 +698,43 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,59 +742,47 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -851,23 +790,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -875,55 +810,50 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Grey" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Input [yellow]" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Normal - Style1" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Percent [2]" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Style 1" xfId="24" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -947,629 +877,629 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.5714285714286"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="2" width="28.1428571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="28.8622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.8622448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" s="9" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="4" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="13"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="14" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="14" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="14" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="14" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1596,7 +1526,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.1"/>
@@ -1605,243 +1535,243 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="53.2142857142857"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="43.5765306122449"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="2" width="28.1428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="28.8622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.8622448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" s="9" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+    <row r="3" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="30"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1866,294 +1796,298 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.14285714285714"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="61"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="24.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="12.1377551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="14.1479591836735"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="4" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" s="36" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" s="31" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" s="39" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+    <row r="3" s="33" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" s="39" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" s="39" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" s="39" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" s="41" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" s="33" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" s="33" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" s="33" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" s="35" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2184,514 +2118,514 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="11.9948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="15.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="39.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="17.5765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="16.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="13.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="46" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="44" width="49.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="45" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="11.9948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="15.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="39.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="17.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="13.5714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="38" width="49.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="39" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" s="48" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-    </row>
-    <row r="2" s="9" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+    <row r="1" s="41" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="46" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="55"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="55"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="55"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="55"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="55"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="55"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="55"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="55"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="55"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="55"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="55"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="55"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="55"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="55"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="55"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="55"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="55"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="55"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="55"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="55"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="55"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="55"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="55"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="55"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="55"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="48"/>
     </row>
     <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="55"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="55"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="55"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="55"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="55"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="55"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="55"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="55"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="55"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="48"/>
     </row>
     <row r="37" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="55"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="48"/>
     </row>
     <row r="38" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="55"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="55"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="55"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="55"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="55"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="55"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="55"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="48"/>
     </row>
     <row r="45" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="55"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="48"/>
     </row>
     <row r="46" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="55"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="48"/>
     </row>
     <row r="47" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="55"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="55"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
